--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering-i-PTE-projektet Christoffer.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering-i-PTE-projektet Christoffer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agger\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agger\Desktop\Skole\PTE-projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -232,6 +232,33 @@
   </si>
   <si>
     <t>1.50</t>
+  </si>
+  <si>
+    <t>Gruppeopdeling</t>
+  </si>
+  <si>
+    <t>Fælles defination af usecases</t>
+  </si>
+  <si>
+    <t>Lave aktivitetsdiagram UC2 med Dan</t>
+  </si>
+  <si>
+    <t>Lave UC og DOM for UC3 med Laura</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>begyndt på prototype for grafik javafx</t>
   </si>
 </sst>
 </file>
@@ -285,10 +312,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +633,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,17 +649,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -681,10 +708,10 @@
       <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0.3888888888888889</v>
       </c>
       <c r="I4" t="s">
@@ -699,10 +726,10 @@
       <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.3888888888888889</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.39583333333333331</v>
       </c>
       <c r="I5" t="s">
@@ -717,10 +744,10 @@
       <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>0.40625</v>
       </c>
       <c r="I6" t="s">
@@ -736,10 +763,10 @@
       <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.40625</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="I7" t="s">
@@ -754,10 +781,10 @@
       <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.4375</v>
       </c>
       <c r="I8" t="s">
@@ -772,10 +799,10 @@
       <c r="F9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>0.4375</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>0.45833333333333331</v>
       </c>
       <c r="I9" t="s">
@@ -790,10 +817,10 @@
       <c r="F10" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>0.54166666666666663</v>
       </c>
       <c r="I10" t="s">
@@ -801,39 +828,103 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>42801</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.34166666666666662</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering-i-PTE-projektet Christoffer.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering-i-PTE-projektet Christoffer.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>begyndt på prototype for grafik javafx</t>
+  </si>
+  <si>
+    <t>Lavet reviews på UC2, DOM DD og AD</t>
+  </si>
+  <si>
+    <t>Færdiggjort prototype for grafik javafx</t>
+  </si>
+  <si>
+    <t>få prototype intregreret i GUI</t>
   </si>
 </sst>
 </file>
@@ -632,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,6 +843,9 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" t="s">
         <v>67</v>
       </c>
@@ -849,6 +861,9 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
       <c r="F13" t="s">
         <v>68</v>
       </c>
@@ -864,6 +879,9 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
       <c r="F14" t="s">
         <v>69</v>
       </c>
@@ -879,6 +897,9 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
       <c r="F15" t="s">
         <v>70</v>
       </c>
@@ -894,6 +915,9 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
       <c r="F16" t="s">
         <v>75</v>
       </c>
@@ -908,18 +932,56 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>42955</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.39583333333333331</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.64583333333333337</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering-i-PTE-projektet Christoffer.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering-i-PTE-projektet Christoffer.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="91">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -268,13 +268,73 @@
   </si>
   <si>
     <t>få prototype intregreret i GUI</t>
+  </si>
+  <si>
+    <t>lavet OC3 sammen på klasse</t>
+  </si>
+  <si>
+    <t>Overblik og uddeling af opgaver</t>
+  </si>
+  <si>
+    <t>Review OC3</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>review OC4</t>
+  </si>
+  <si>
+    <t>Lavet SSD for OC5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UC6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC45911"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AD + DD + TC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UC9:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF66CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UC + TC + Opsætning</t>
+    </r>
+  </si>
+  <si>
+    <t>lavet OC7</t>
+  </si>
+  <si>
+    <t>Lavet review på OC5</t>
+  </si>
+  <si>
+    <t>startet på klassediagram OC5</t>
+  </si>
+  <si>
+    <t>Lavet review på OC6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +346,36 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC45911"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC45911"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF66CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF66CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -325,6 +415,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +743,7 @@
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" customWidth="1"/>
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
@@ -984,17 +1076,187 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>42957</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.64583333333333337</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E103 E3:E30">
       <formula1>GyldigeRoller</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
